--- a/secretaires.xlsx
+++ b/secretaires.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utilisateur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaker\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E122E-E573-4F09-9738-24072FD56CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="246">
   <si>
     <t>Nom PDF</t>
   </si>
@@ -672,9 +662,6 @@
     <t>41.pdf</t>
   </si>
   <si>
-    <t>42.1.Pdf</t>
-  </si>
-  <si>
     <t>42.2.pdf</t>
   </si>
   <si>
@@ -766,9 +753,6 @@
   </si>
   <si>
     <t>52.pdf</t>
-  </si>
-  <si>
-    <t>53.1.Pdf</t>
   </si>
   <si>
     <t>53.2.pdf</t>
@@ -1252,13 +1236,25 @@
   </si>
   <si>
     <t>The New and Complete British Letter-Writer; or, Young secretary’s instructor in polite modern letter-writing. Containing near Four Hundred Original, Plain, Easy, Instructive, and Entertaining Letters on the most useful and important Subjects, particularly Education, Business, Friendship, Love and Courtship, Marriage, Wit and Humour, Instruction, Advice, Compliments, Condolance, Religion and Morality, &amp;c. &amp;c. Together with Letters to and from Parents, Children, Brothers, Sisters, and other Relations, as well as on every other interesting Subject throughout Life. The whole calculated to enable the Reader to write Letters on all Occasions, without any further Instructions. With A Concise and Familiar English Grammar. To which Are added, Directions for addressing Persons of All Ranks either in Writing or Discourse. And a Set of Genteel Complimentary Cards. Likewise The Petitioner’s Instructor, Containing The Art of Writing Petitions to Superiors; Also Useful Forms of Law, as Wills, Bonds, &amp;c. &amp;c. And Other Instructive Articles, Necessary to Be Known by All Persons</t>
+  </si>
+  <si>
+    <t>36.2.pdf</t>
+  </si>
+  <si>
+    <t>36.3.pdf</t>
+  </si>
+  <si>
+    <t>42.1.pdf</t>
+  </si>
+  <si>
+    <t>53.1.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1662,21 +1658,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1730,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1764,7 +1760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1781,7 +1777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1798,7 +1794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1815,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1849,7 +1845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1866,7 +1862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1883,7 +1879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1917,7 +1913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1934,7 +1930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1951,7 +1947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1968,7 +1964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1985,7 +1981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2002,7 +1998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2019,7 +2015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2036,7 +2032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2053,7 +2049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2070,7 +2066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2087,7 +2083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2104,7 +2100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2121,7 +2117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2138,7 +2134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2155,7 +2151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2189,7 +2185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75">
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2206,7 +2202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75">
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2223,7 +2219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75">
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2240,7 +2236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -2257,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2274,7 +2270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2291,7 +2287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2308,7 +2304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2325,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2342,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -2359,7 +2355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -2376,7 +2372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2393,7 +2389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -2410,7 +2406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -2427,7 +2423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75">
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -2444,7 +2440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75">
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -2461,202 +2457,202 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
       </c>
       <c r="D47">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75">
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
       </c>
       <c r="D48">
+        <v>1770</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49">
+        <v>1778</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50">
         <v>1780</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75">
-      <c r="A49" t="s">
+      <c r="E50" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>97</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <v>1702</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75">
-      <c r="A50" t="s">
+      <c r="E51" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>1713</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75">
-      <c r="A51" t="s">
+      <c r="E52" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>100</v>
       </c>
-      <c r="D51">
+      <c r="D53">
         <v>1790</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75">
-      <c r="A52" t="s">
+      <c r="E53" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54">
+        <v>1790</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52">
-        <v>1790</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75">
-      <c r="A53" t="s">
+      <c r="C55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56">
+        <v>1788</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57">
+        <v>1798</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54">
-        <v>1788</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75">
-      <c r="A55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55">
-        <v>1798</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75">
-      <c r="A56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56">
-        <v>1726</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75">
-      <c r="A57" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57">
-        <v>1727</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75">
-      <c r="A58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D58">
         <v>1726</v>
@@ -2665,934 +2661,968 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75">
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59">
+        <v>1727</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60">
+        <v>1726</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61">
+        <v>1721</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="B62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D59">
-        <v>1721</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75">
-      <c r="A60" t="s">
+      <c r="D62">
+        <v>1758</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60">
-        <v>1758</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75">
-      <c r="A61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D63">
+        <v>1771</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D61">
-        <v>1771</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75">
-      <c r="A62" t="s">
+      <c r="D64">
+        <v>1755</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="B65" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D62">
+      <c r="C65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65">
         <v>1755</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75">
-      <c r="A63" t="s">
+      <c r="E65" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63">
-        <v>1755</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75">
-      <c r="A64" t="s">
+      <c r="D66">
+        <v>1783</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67">
+        <v>1790</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64">
-        <v>1783</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75">
-      <c r="A65" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65">
+      <c r="D68">
         <v>1790</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75">
-      <c r="A66" t="s">
+      <c r="E68" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>245</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69">
+        <v>1720</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>134</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66">
-        <v>1790</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67">
-        <v>1720</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75">
-      <c r="A68" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68">
-        <v>1705</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75">
-      <c r="A69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D69">
-        <v>1759</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75">
-      <c r="A70" t="s">
-        <v>138</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D70">
-        <v>1706</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75">
+        <v>1705</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D71">
-        <v>1719</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75">
+        <v>1759</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D72">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E72" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D73">
-        <v>1766</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75">
+        <v>1719</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D74">
+        <v>1707</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75">
+        <v>1766</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76">
         <v>1754</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E76" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75">
-      <c r="A75" t="s">
+    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77">
+        <v>1755</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78">
+        <v>1764</v>
+      </c>
+      <c r="E78" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75">
-        <v>1755</v>
-      </c>
-      <c r="E75" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75">
-      <c r="A76" t="s">
+      <c r="B79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79">
+        <v>1749</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>144</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D76">
-        <v>1764</v>
-      </c>
-      <c r="E76" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75">
-      <c r="A77" t="s">
-        <v>145</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77">
-        <v>1749</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75">
-      <c r="A78" t="s">
-        <v>146</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78">
-        <v>1749</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75">
-      <c r="A79" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79">
-        <v>1719</v>
-      </c>
-      <c r="E79" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75">
-      <c r="A80" t="s">
-        <v>148</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D80">
+        <v>1749</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81">
+        <v>1719</v>
+      </c>
+      <c r="E81" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82">
         <v>1790</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75">
-      <c r="A81" t="s">
+      <c r="E82" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84">
+        <v>1705</v>
+      </c>
+      <c r="E84" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>149</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D81">
-        <v>1800</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75">
-      <c r="A82" t="s">
-        <v>150</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D82">
-        <v>1705</v>
-      </c>
-      <c r="E82" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75">
-      <c r="A83" t="s">
-        <v>151</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83">
-        <v>1714</v>
-      </c>
-      <c r="E83" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75">
-      <c r="A84" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84">
-        <v>1779</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75">
-      <c r="A85" t="s">
-        <v>153</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D85">
-        <v>1758</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75">
+        <v>1714</v>
+      </c>
+      <c r="E85" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D86">
-        <v>1790</v>
+        <v>1779</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75">
+    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D87">
+        <v>1758</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88">
+        <v>1790</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89">
         <v>1763</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E89" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75">
-      <c r="A88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D88">
-        <v>1765</v>
-      </c>
-      <c r="E88" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75">
-      <c r="A89" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89">
-        <v>1781</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75">
+    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D90">
-        <v>1791</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75">
+        <v>1765</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D91">
-        <v>1794</v>
+        <v>1781</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75">
+    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D92">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75">
+    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D93">
-        <v>1756</v>
+        <v>1794</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75">
+    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D94">
-        <v>1797</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75">
+        <v>1788</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D95">
+        <v>1756</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96">
+        <v>1797</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97">
         <v>1762</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E97" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75">
-      <c r="A96" t="s">
+    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98">
+        <v>1791</v>
+      </c>
+      <c r="E98" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D99">
+        <v>1797</v>
+      </c>
+      <c r="E99" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>180</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96">
-        <v>1791</v>
-      </c>
-      <c r="E96" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75">
-      <c r="A97" t="s">
+      <c r="B100" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100">
+        <v>1741</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>181</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D97">
-        <v>1797</v>
-      </c>
-      <c r="E97" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75">
-      <c r="A98" t="s">
-        <v>182</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D98">
-        <v>1741</v>
-      </c>
-      <c r="E98" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75">
-      <c r="A99" t="s">
-        <v>183</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D99">
-        <v>1746</v>
-      </c>
-      <c r="E99" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75">
-      <c r="A100" t="s">
-        <v>184</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D100">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75">
-      <c r="A101" t="s">
-        <v>185</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D101">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75">
+        <v>1746</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D102">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D103">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D104">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106">
         <v>1763</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E106" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75">
-      <c r="A105" t="s">
-        <v>189</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D105">
+    <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>187</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D107">
         <v>1765</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E107" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
-      <c r="A106" t="s">
-        <v>190</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D106">
-        <v>1769</v>
-      </c>
-      <c r="E106" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75">
-      <c r="A107" t="s">
-        <v>191</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D107">
-        <v>1759</v>
-      </c>
-      <c r="E107" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75">
+    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D108">
-        <v>1760</v>
+        <v>1769</v>
       </c>
       <c r="E108" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D109">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="E109" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110">
+        <v>1760</v>
+      </c>
+      <c r="E110" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D111">
+        <v>1762</v>
+      </c>
+      <c r="E111" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D112">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>193</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D110">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75">
-      <c r="A111" t="s">
-        <v>195</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C111" s="4" t="s">
+      <c r="D115">
+        <v>1779</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>196</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D111">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75">
-      <c r="A112" t="s">
-        <v>196</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D112">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75">
-      <c r="A113" t="s">
-        <v>197</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D113">
-        <v>1779</v>
-      </c>
-      <c r="E113" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75">
-      <c r="A114" t="s">
-        <v>198</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D114">
+      <c r="D116">
         <v>1794</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E116" s="3">
         <v>2</v>
       </c>
     </row>

--- a/secretaires.xlsx
+++ b/secretaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaker\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E122E-E573-4F09-9738-24072FD56CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9847BBFC-454F-4E0F-9C62-15C8C8AE8CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="247">
   <si>
     <t>Nom PDF</t>
   </si>
@@ -1248,6 +1248,9 @@
   </si>
   <si>
     <t>53.1.pdf</t>
+  </si>
+  <si>
+    <t>36.4.pdf</t>
   </si>
 </sst>
 </file>
@@ -1659,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,18 +2494,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
         <v>93</v>
       </c>
       <c r="D49">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
@@ -2510,7 +2513,7 @@
     </row>
     <row r="50" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>95</v>
@@ -2519,24 +2522,24 @@
         <v>93</v>
       </c>
       <c r="D50">
+        <v>1778</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51">
         <v>1780</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51">
-        <v>1702</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>21</v>
@@ -2544,16 +2547,16 @@
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
       </c>
       <c r="D52">
-        <v>1713</v>
+        <v>1702</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -2561,16 +2564,16 @@
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D53">
-        <v>1790</v>
+        <v>1713</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>21</v>
@@ -2578,13 +2581,13 @@
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
       </c>
       <c r="D54">
         <v>1790</v>
@@ -2595,16 +2598,16 @@
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D55" t="s">
-        <v>21</v>
+      <c r="D55">
+        <v>1790</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>21</v>
@@ -2612,7 +2615,7 @@
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>113</v>
@@ -2620,8 +2623,8 @@
       <c r="C56" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D56">
-        <v>1788</v>
+      <c r="D56" t="s">
+        <v>21</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>113</v>
@@ -2638,7 +2641,7 @@
         <v>111</v>
       </c>
       <c r="D57">
-        <v>1798</v>
+        <v>1788</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>21</v>
@@ -2646,16 +2649,16 @@
     </row>
     <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D58">
-        <v>1726</v>
+        <v>1798</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -2663,50 +2666,50 @@
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D59">
-        <v>1727</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2</v>
+        <v>1726</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D60">
-        <v>1726</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>21</v>
+        <v>1727</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D61">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
@@ -2714,16 +2717,16 @@
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62">
-        <v>1758</v>
+        <v>1721</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>21</v>
@@ -2731,16 +2734,16 @@
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D63">
-        <v>1771</v>
+        <v>1758</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>21</v>
@@ -2748,16 +2751,16 @@
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D64">
-        <v>1755</v>
+        <v>1771</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -2765,7 +2768,7 @@
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>125</v>
@@ -2782,16 +2785,16 @@
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D66">
-        <v>1783</v>
+        <v>1755</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>21</v>
@@ -2799,7 +2802,7 @@
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>131</v>
@@ -2808,7 +2811,7 @@
         <v>128</v>
       </c>
       <c r="D67">
-        <v>1790</v>
+        <v>1783</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>21</v>
@@ -2816,13 +2819,13 @@
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D68">
         <v>1790</v>
@@ -2833,16 +2836,16 @@
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D69">
-        <v>1720</v>
+        <v>1790</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>21</v>
@@ -2850,7 +2853,7 @@
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>240</v>
@@ -2859,7 +2862,7 @@
         <v>161</v>
       </c>
       <c r="D70">
-        <v>1705</v>
+        <v>1720</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>21</v>
@@ -2867,101 +2870,101 @@
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D71">
-        <v>1759</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
+        <v>1705</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D72">
-        <v>1706</v>
+        <v>1759</v>
       </c>
       <c r="E72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D73">
-        <v>1719</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>21</v>
+        <v>1706</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D74">
-        <v>1707</v>
-      </c>
-      <c r="E74" s="3">
-        <v>4</v>
+        <v>1719</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D75">
-        <v>1766</v>
+        <v>1707</v>
       </c>
       <c r="E75" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D76">
-        <v>1754</v>
+        <v>1766</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>234</v>
@@ -2978,15 +2981,15 @@
         <v>166</v>
       </c>
       <c r="D77">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E77" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>234</v>
@@ -2995,32 +2998,32 @@
         <v>166</v>
       </c>
       <c r="D78">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="E78" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D79">
-        <v>1749</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>21</v>
+        <v>1764</v>
+      </c>
+      <c r="E79" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>233</v>
@@ -3037,41 +3040,41 @@
     </row>
     <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D81">
-        <v>1719</v>
-      </c>
-      <c r="E81" s="3">
-        <v>20</v>
+        <v>1749</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D82">
-        <v>1790</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>21</v>
+        <v>1719</v>
+      </c>
+      <c r="E82" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>231</v>
@@ -3080,7 +3083,7 @@
         <v>169</v>
       </c>
       <c r="D83">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>21</v>
@@ -3088,24 +3091,24 @@
     </row>
     <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D84">
-        <v>1705</v>
-      </c>
-      <c r="E84" s="3">
-        <v>7</v>
+        <v>1800</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>230</v>
@@ -3114,41 +3117,41 @@
         <v>170</v>
       </c>
       <c r="D85">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="E85" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D86">
-        <v>1779</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>21</v>
+        <v>1714</v>
+      </c>
+      <c r="E86" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87">
-        <v>1758</v>
+        <v>1779</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>21</v>
@@ -3156,16 +3159,16 @@
     </row>
     <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D88">
-        <v>1790</v>
+        <v>1758</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>21</v>
@@ -3173,24 +3176,24 @@
     </row>
     <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D89">
-        <v>1763</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1</v>
+        <v>1790</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>226</v>
@@ -3199,41 +3202,41 @@
         <v>173</v>
       </c>
       <c r="D90">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="E90" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D91">
-        <v>1781</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>21</v>
+        <v>1765</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D92">
-        <v>1791</v>
+        <v>1781</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>21</v>
@@ -3241,16 +3244,16 @@
     </row>
     <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D93">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>21</v>
@@ -3258,16 +3261,16 @@
     </row>
     <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D94">
-        <v>1788</v>
+        <v>1794</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>21</v>
@@ -3275,16 +3278,16 @@
     </row>
     <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D95">
-        <v>1756</v>
+        <v>1788</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>21</v>
@@ -3292,41 +3295,41 @@
     </row>
     <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D96">
-        <v>1797</v>
-      </c>
-      <c r="E96" s="3">
-        <v>1</v>
+        <v>1756</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D97">
-        <v>1762</v>
+        <v>1797</v>
       </c>
       <c r="E97" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>219</v>
@@ -3335,15 +3338,15 @@
         <v>197</v>
       </c>
       <c r="D98">
-        <v>1791</v>
+        <v>1762</v>
       </c>
       <c r="E98" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>219</v>
@@ -3352,32 +3355,32 @@
         <v>197</v>
       </c>
       <c r="D99">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="E99" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D100">
-        <v>1741</v>
+        <v>1797</v>
       </c>
       <c r="E100" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>218</v>
@@ -3386,88 +3389,88 @@
         <v>198</v>
       </c>
       <c r="D101">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="E101" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D102">
-        <v>1766</v>
+        <v>1746</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D103">
-        <v>1703</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D104">
-        <v>1748</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D105">
-        <v>1714</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D106">
-        <v>1763</v>
-      </c>
-      <c r="E106" s="3">
-        <v>1</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>213</v>
@@ -3476,15 +3479,15 @@
         <v>202</v>
       </c>
       <c r="D107">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="E107" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>213</v>
@@ -3493,49 +3496,49 @@
         <v>202</v>
       </c>
       <c r="D108">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="E108" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>188</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D109">
+        <v>1769</v>
+      </c>
+      <c r="E109" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D109">
-        <v>1759</v>
-      </c>
-      <c r="E109" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>190</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D110">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E110" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>211</v>
@@ -3544,74 +3547,74 @@
         <v>203</v>
       </c>
       <c r="D111">
+        <v>1760</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>191</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D112">
         <v>1762</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E112" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>192</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D112">
-        <v>1701</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D113">
-        <v>1718</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D114">
-        <v>1782</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D115">
-        <v>1779</v>
-      </c>
-      <c r="E115" s="3">
-        <v>1</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>207</v>
@@ -3620,9 +3623,26 @@
         <v>206</v>
       </c>
       <c r="D116">
+        <v>1779</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D117">
         <v>1794</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E117" s="3">
         <v>2</v>
       </c>
     </row>

--- a/secretaires.xlsx
+++ b/secretaires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaker\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utilisateur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9847BBFC-454F-4E0F-9C62-15C8C8AE8CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EFB11A3-8469-4E23-A8A4-21C5E5BA50AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1110" windowWidth="21315" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="250">
   <si>
     <t>Nom PDF</t>
   </si>
@@ -1251,13 +1254,22 @@
   </si>
   <si>
     <t>36.4.pdf</t>
+  </si>
+  <si>
+    <t>89.pdf</t>
+  </si>
+  <si>
+    <t>The Ladies and Gentlemen's Complete Letter-Writer Containing Familiar Letters in the Most Common Occasions in Life. Also, a Variety of Elegant Letters for the Direction and Embellishment of Style, on Business, Duty, Amusement, Love, Courtship, Marriage, Friendship, and Other Subjects with Directions for Writing Letters, and the Proper Forms of Address</t>
+  </si>
+  <si>
+    <t>British Isles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1662,20 +1674,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="C107" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1711,8 +1723,11 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1728,8 +1743,11 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1745,8 +1763,11 @@
       <c r="E4" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1762,8 +1783,11 @@
       <c r="E5" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1779,8 +1803,11 @@
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1796,8 +1823,11 @@
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1813,8 +1843,11 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1830,8 +1863,11 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1847,8 +1883,11 @@
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1864,8 +1903,11 @@
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1881,8 +1923,11 @@
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1898,8 +1943,11 @@
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1915,8 +1963,11 @@
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1932,8 +1983,11 @@
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1949,8 +2003,11 @@
       <c r="E16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1966,8 +2023,11 @@
       <c r="E17" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1983,8 +2043,11 @@
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2000,8 +2063,11 @@
       <c r="E19" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2017,8 +2083,11 @@
       <c r="E20" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2034,8 +2103,11 @@
       <c r="E21" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2051,8 +2123,11 @@
       <c r="E22" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2068,8 +2143,11 @@
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2085,8 +2163,11 @@
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2102,8 +2183,11 @@
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2119,8 +2203,11 @@
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2136,8 +2223,11 @@
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2153,8 +2243,11 @@
       <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2263,11 @@
       <c r="E29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2187,8 +2283,11 @@
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2204,8 +2303,11 @@
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2221,8 +2323,11 @@
       <c r="E32" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2238,8 +2343,11 @@
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -2255,8 +2363,11 @@
       <c r="E34" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2272,8 +2383,11 @@
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2306,8 +2423,11 @@
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2323,8 +2443,11 @@
       <c r="E38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2340,8 +2463,11 @@
       <c r="E39" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -2357,8 +2483,11 @@
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -2374,8 +2503,11 @@
       <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2391,8 +2523,11 @@
       <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -2408,8 +2543,11 @@
       <c r="E43" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -2425,8 +2563,11 @@
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -2442,8 +2583,11 @@
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -2459,8 +2603,11 @@
       <c r="E46" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75">
       <c r="A47" t="s">
         <v>242</v>
       </c>
@@ -2476,8 +2623,11 @@
       <c r="E47" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -2493,8 +2643,11 @@
       <c r="E48" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75">
       <c r="A49" t="s">
         <v>246</v>
       </c>
@@ -2510,8 +2663,11 @@
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -2527,8 +2683,11 @@
       <c r="E50" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -2544,8 +2703,11 @@
       <c r="E51" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2561,8 +2723,11 @@
       <c r="E52" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -2578,8 +2743,11 @@
       <c r="E53" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -2595,8 +2763,11 @@
       <c r="E54" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -2612,8 +2783,11 @@
       <c r="E55" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56" t="s">
         <v>244</v>
       </c>
@@ -2629,8 +2803,11 @@
       <c r="E56" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -2646,8 +2823,11 @@
       <c r="E57" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -2663,8 +2843,11 @@
       <c r="E58" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -2680,8 +2863,11 @@
       <c r="E59" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -2697,8 +2883,11 @@
       <c r="E60" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -2714,8 +2903,11 @@
       <c r="E61" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -2731,8 +2923,11 @@
       <c r="E62" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -2748,8 +2943,11 @@
       <c r="E63" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -2765,8 +2963,11 @@
       <c r="E64" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -2782,8 +2983,11 @@
       <c r="E65" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -2799,8 +3003,11 @@
       <c r="E66" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -2816,8 +3023,11 @@
       <c r="E67" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75">
       <c r="A68" t="s">
         <v>130</v>
       </c>
@@ -2833,8 +3043,11 @@
       <c r="E68" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -2850,8 +3063,11 @@
       <c r="E69" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -2867,8 +3083,11 @@
       <c r="E70" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75">
       <c r="A71" t="s">
         <v>134</v>
       </c>
@@ -2884,8 +3103,11 @@
       <c r="E71" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -2901,8 +3123,11 @@
       <c r="E72" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75">
       <c r="A73" t="s">
         <v>136</v>
       </c>
@@ -2918,8 +3143,11 @@
       <c r="E73" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75">
       <c r="A74" t="s">
         <v>137</v>
       </c>
@@ -2935,8 +3163,11 @@
       <c r="E74" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -2952,8 +3183,11 @@
       <c r="E75" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75">
       <c r="A76" t="s">
         <v>139</v>
       </c>
@@ -2969,8 +3203,11 @@
       <c r="E76" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -2986,8 +3223,11 @@
       <c r="E77" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75">
       <c r="A78" t="s">
         <v>141</v>
       </c>
@@ -3003,8 +3243,11 @@
       <c r="E78" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -3020,8 +3263,11 @@
       <c r="E79" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75">
       <c r="A80" t="s">
         <v>143</v>
       </c>
@@ -3037,8 +3283,11 @@
       <c r="E80" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75">
       <c r="A81" t="s">
         <v>144</v>
       </c>
@@ -3054,8 +3303,11 @@
       <c r="E81" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -3071,8 +3323,11 @@
       <c r="E82" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75">
       <c r="A83" t="s">
         <v>146</v>
       </c>
@@ -3088,8 +3343,11 @@
       <c r="E83" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75">
       <c r="A84" t="s">
         <v>147</v>
       </c>
@@ -3105,8 +3363,11 @@
       <c r="E84" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75">
       <c r="A85" t="s">
         <v>148</v>
       </c>
@@ -3122,8 +3383,11 @@
       <c r="E85" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75">
       <c r="A86" t="s">
         <v>149</v>
       </c>
@@ -3139,8 +3403,11 @@
       <c r="E86" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75">
       <c r="A87" t="s">
         <v>150</v>
       </c>
@@ -3156,8 +3423,11 @@
       <c r="E87" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -3173,8 +3443,11 @@
       <c r="E88" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75">
       <c r="A89" t="s">
         <v>152</v>
       </c>
@@ -3190,8 +3463,11 @@
       <c r="E89" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -3207,8 +3483,11 @@
       <c r="E90" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75">
       <c r="A91" t="s">
         <v>154</v>
       </c>
@@ -3224,8 +3503,11 @@
       <c r="E91" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -3241,8 +3523,11 @@
       <c r="E92" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -3258,8 +3543,11 @@
       <c r="E93" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75">
       <c r="A94" t="s">
         <v>157</v>
       </c>
@@ -3275,8 +3563,11 @@
       <c r="E94" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75">
       <c r="A95" t="s">
         <v>158</v>
       </c>
@@ -3292,8 +3583,11 @@
       <c r="E95" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75">
       <c r="A96" t="s">
         <v>159</v>
       </c>
@@ -3309,8 +3603,11 @@
       <c r="E96" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75">
       <c r="A97" t="s">
         <v>160</v>
       </c>
@@ -3326,8 +3623,11 @@
       <c r="E97" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -3343,8 +3643,11 @@
       <c r="E98" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75">
       <c r="A99" t="s">
         <v>178</v>
       </c>
@@ -3360,8 +3663,11 @@
       <c r="E99" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75">
       <c r="A100" t="s">
         <v>179</v>
       </c>
@@ -3377,8 +3683,11 @@
       <c r="E100" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -3394,8 +3703,11 @@
       <c r="E101" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -3411,8 +3723,11 @@
       <c r="E102" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75">
       <c r="A103" t="s">
         <v>182</v>
       </c>
@@ -3425,8 +3740,11 @@
       <c r="D103">
         <v>1766</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75">
       <c r="A104" t="s">
         <v>183</v>
       </c>
@@ -3439,8 +3757,11 @@
       <c r="D104">
         <v>1703</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -3453,8 +3774,11 @@
       <c r="D105">
         <v>1748</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75">
       <c r="A106" t="s">
         <v>185</v>
       </c>
@@ -3467,8 +3791,11 @@
       <c r="D106">
         <v>1714</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75">
       <c r="A107" t="s">
         <v>186</v>
       </c>
@@ -3484,8 +3811,11 @@
       <c r="E107" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -3501,8 +3831,11 @@
       <c r="E108" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -3518,8 +3851,11 @@
       <c r="E109" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75">
       <c r="A110" t="s">
         <v>189</v>
       </c>
@@ -3535,8 +3871,11 @@
       <c r="E110" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="F110" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75">
       <c r="A111" t="s">
         <v>190</v>
       </c>
@@ -3552,8 +3891,11 @@
       <c r="E111" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="F111" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75">
       <c r="A112" t="s">
         <v>191</v>
       </c>
@@ -3569,8 +3911,11 @@
       <c r="E112" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -3583,8 +3928,11 @@
       <c r="D113">
         <v>1701</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75">
       <c r="A114" t="s">
         <v>193</v>
       </c>
@@ -3597,8 +3945,11 @@
       <c r="D114">
         <v>1718</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75">
       <c r="A115" t="s">
         <v>194</v>
       </c>
@@ -3611,8 +3962,11 @@
       <c r="D115">
         <v>1782</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75">
       <c r="A116" t="s">
         <v>195</v>
       </c>
@@ -3628,8 +3982,11 @@
       <c r="E116" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75">
       <c r="A117" t="s">
         <v>196</v>
       </c>
@@ -3644,6 +4001,26 @@
       </c>
       <c r="E117" s="3">
         <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75">
+      <c r="A118" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118">
+        <v>1797</v>
+      </c>
+      <c r="F118" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/secretaires.xlsx
+++ b/secretaires.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utilisateur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EFB11A3-8469-4E23-A8A4-21C5E5BA50AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8EE92B-074A-466E-BD86-00AB62ECC06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1110" windowWidth="21315" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="510" windowWidth="21315" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="253">
   <si>
     <t>Nom PDF</t>
   </si>
@@ -1263,13 +1263,22 @@
   </si>
   <si>
     <t>British Isles</t>
+  </si>
+  <si>
+    <t>Le Secrétaire des dames pour apprendre (sic) à écrire de belles lettres en langue française</t>
+  </si>
+  <si>
+    <t>101.pdf</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1311,6 +1320,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1332,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1340,6 +1356,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1674,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C107" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4023,6 +4040,23 @@
         <v>249</v>
       </c>
     </row>
+    <row r="119" spans="1:6" ht="15.75">
+      <c r="A119" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>1759</v>
+      </c>
+      <c r="F119" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/secretaires.xlsx
+++ b/secretaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utilisateur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8EE92B-074A-466E-BD86-00AB62ECC06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D119F-5174-4A5E-9EBB-3EF3049811B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="510" windowWidth="21315" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,13 +1265,13 @@
     <t>British Isles</t>
   </si>
   <si>
-    <t>Le Secrétaire des dames pour apprendre (sic) à écrire de belles lettres en langue française</t>
-  </si>
-  <si>
     <t>101.pdf</t>
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>Le Secrétaire des dames pour apprendre à écrire de belles lettres en langue française</t>
   </si>
 </sst>
 </file>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C107" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView tabSelected="1" topLeftCell="B107" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="119" spans="1:6" ht="15.75">
       <c r="A119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>6</v>
@@ -4054,7 +4054,7 @@
         <v>1759</v>
       </c>
       <c r="F119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/secretaires.xlsx
+++ b/secretaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utilisateur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D119F-5174-4A5E-9EBB-3EF3049811B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5034C-7AAF-49AF-BB87-599C660E8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="510" windowWidth="21315" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="256">
   <si>
     <t>Nom PDF</t>
   </si>
@@ -1272,6 +1272,15 @@
   </si>
   <si>
     <t>Le Secrétaire des dames pour apprendre à écrire de belles lettres en langue française</t>
+  </si>
+  <si>
+    <t>102,pdf</t>
+  </si>
+  <si>
+    <t>Milleran, René</t>
+  </si>
+  <si>
+    <t>Lettres familières, galantes, et autres, sur toutes sortes de sujets, avec leurs réponses</t>
   </si>
 </sst>
 </file>
@@ -1691,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B107" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4057,6 +4066,23 @@
         <v>251</v>
       </c>
     </row>
+    <row r="120" spans="1:6" ht="15.75">
+      <c r="A120" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D120">
+        <v>1690</v>
+      </c>
+      <c r="F120" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/secretaires.xlsx
+++ b/secretaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utilisateur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5034C-7AAF-49AF-BB87-599C660E8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC17D4E-2034-4EC0-BC64-01F0639647C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="510" windowWidth="21315" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1274,13 +1274,13 @@
     <t>Le Secrétaire des dames pour apprendre à écrire de belles lettres en langue française</t>
   </si>
   <si>
-    <t>102,pdf</t>
-  </si>
-  <si>
     <t>Milleran, René</t>
   </si>
   <si>
     <t>Lettres familières, galantes, et autres, sur toutes sortes de sujets, avec leurs réponses</t>
+  </si>
+  <si>
+    <t>102.pdf</t>
   </si>
 </sst>
 </file>
@@ -4068,13 +4068,13 @@
     </row>
     <row r="120" spans="1:6" ht="15.75">
       <c r="A120" t="s">
+        <v>255</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="D120">
         <v>1690</v>
